--- a/躺平计算器.xlsx
+++ b/躺平计算器.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj\real\fire-calculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B661DE18-D824-4D18-87D2-9E09EFC1DE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7C8AF-5182-496A-BB8C-1FB1D8E9C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">本图作者 </t>
+      <t xml:space="preserve">本表作者 </t>
     </r>
     <r>
       <rPr>
@@ -236,7 +236,7 @@
         <charset val="134"/>
       </rPr>
       <t>参考了一些项目搭建的这个计算器，但迫于很多项目都使用 web 搭建，甚至很多项目是不开源的，对于代码小白来说如果有自己的诉求，也不方便改造，同时网站也不能完全保护隐私，因此决定搭建这个开源工具
-GitHub 地址：https://github.com/zsqw123/fire-calculate</t>
+GitHub：https://github.com/zsqw123/fire-calculate</t>
     </r>
     <r>
       <rPr>
@@ -257,7 +257,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>飞书模板文档地址：https://eqyrx3fg3l.feishu.cn/sheets/Rofps2lj8hYeGktI0WtcpMugnib</t>
+      <t>飞书模板文档：https://eqyrx3fg3l.feishu.cn/sheets/Rofps2lj8hYeGktI0WtcpMugnib</t>
     </r>
     <r>
       <rPr>
@@ -5274,7 +5274,7 @@
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
